--- a/images/demo_file/test3.xlsx
+++ b/images/demo_file/test3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\ITGS\week_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frame\SputnikPro\version2_2__3_12\public\images\demo_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63A34A-211B-4BFE-8111-E1BEF9F3BE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979D81A5-8497-4569-8606-6EB6B40367D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{AB7DE8F2-785D-44D2-9651-8ABDEEEA92A4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$729</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$365</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4475,6 +4475,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C365" xr:uid="{CA35CBAE-564B-459D-9D42-E1D344D6AB6D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
